--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38E87CDF-8705-4624-9575-5F9D8CA290A2}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DAE435-EA11-43AB-875C-43F8CE085450}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bank" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bank!$A$1:$L$358</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1118,12 +1121,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Activity 1</t>
-  </si>
-  <si>
-    <t>Activity 2</t>
-  </si>
-  <si>
     <t>Activity 3</t>
   </si>
   <si>
@@ -1143,6 +1140,12 @@
   </si>
   <si>
     <t>Activity 9</t>
+  </si>
+  <si>
+    <t>Kick Off</t>
+  </si>
+  <si>
+    <t>Pall Mall Connect 4</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
   <dimension ref="A1:L358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1536,31 +1539,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>359</v>
@@ -1925,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1953,7 +1956,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -2432,7 +2435,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2510,7 +2513,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2538,7 +2541,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2549,7 +2552,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2588,10 +2591,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2744,7 +2747,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2783,10 +2786,10 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2822,7 +2825,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2861,7 +2864,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2900,7 +2903,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2928,7 +2931,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3056,7 +3059,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3084,7 +3087,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3134,10 +3137,10 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3212,10 +3215,10 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3240,7 +3243,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3251,7 +3254,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3641,7 +3644,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3914,7 +3917,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3942,7 +3945,7 @@
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3992,7 +3995,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4020,7 +4023,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -4109,7 +4112,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4137,7 +4140,7 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="1">+SUM(C67:K67)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -4148,7 +4151,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4187,10 +4190,10 @@
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4215,7 +4218,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -4421,7 +4424,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4449,7 +4452,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4538,7 +4541,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4694,7 +4697,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4722,7 +4725,7 @@
       </c>
       <c r="L82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4733,7 +4736,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4761,7 +4764,7 @@
       </c>
       <c r="L83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4850,7 +4853,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4878,7 +4881,7 @@
       </c>
       <c r="L86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4889,7 +4892,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4917,7 +4920,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4928,7 +4931,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4956,7 +4959,7 @@
       </c>
       <c r="L88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4967,7 +4970,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4995,7 +4998,7 @@
       </c>
       <c r="L89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -5279,10 +5282,10 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -5307,7 +5310,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -5357,10 +5360,10 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5385,7 +5388,7 @@
       </c>
       <c r="L99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -5396,7 +5399,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5424,7 +5427,7 @@
       </c>
       <c r="L100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -5435,10 +5438,10 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5463,7 +5466,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -5513,7 +5516,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5541,7 +5544,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
@@ -5591,7 +5594,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5619,7 +5622,7 @@
       </c>
       <c r="L105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -5630,7 +5633,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5658,7 +5661,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -5747,10 +5750,10 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5775,7 +5778,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -5903,7 +5906,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5931,7 +5934,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -6059,7 +6062,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -6087,7 +6090,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -6176,7 +6179,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6204,7 +6207,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -6215,7 +6218,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6243,7 +6246,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -6332,7 +6335,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6360,7 +6363,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -6644,7 +6647,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6672,7 +6675,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -6722,7 +6725,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6750,7 +6753,7 @@
       </c>
       <c r="L134">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -6956,7 +6959,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6984,7 +6987,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -6995,7 +6998,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -7023,7 +7026,7 @@
       </c>
       <c r="L141">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -7034,7 +7037,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -7062,7 +7065,7 @@
       </c>
       <c r="L142">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -7073,7 +7076,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -7101,7 +7104,7 @@
       </c>
       <c r="L143">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -7112,7 +7115,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -7140,7 +7143,7 @@
       </c>
       <c r="L144">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -7154,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7179,7 +7182,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -7229,10 +7232,10 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7257,7 +7260,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -7580,7 +7583,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -7608,7 +7611,7 @@
       </c>
       <c r="L156">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -7619,7 +7622,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -7647,7 +7650,7 @@
       </c>
       <c r="L157">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
@@ -7697,7 +7700,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -7725,7 +7728,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -8087,7 +8090,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -8115,7 +8118,7 @@
       </c>
       <c r="L169">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -8204,7 +8207,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -8232,7 +8235,7 @@
       </c>
       <c r="L172">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -8594,7 +8597,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -8622,7 +8625,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -9023,7 +9026,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -9051,7 +9054,7 @@
       </c>
       <c r="L193">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
@@ -9062,7 +9065,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -9090,7 +9093,7 @@
       </c>
       <c r="L194">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -9140,7 +9143,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -9168,7 +9171,7 @@
       </c>
       <c r="L196">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -9647,10 +9650,10 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -9675,7 +9678,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
@@ -9686,7 +9689,7 @@
         <v>210</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -9714,7 +9717,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
@@ -9725,7 +9728,7 @@
         <v>211</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -9753,7 +9756,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -10193,7 +10196,7 @@
         <v>223</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -10221,7 +10224,7 @@
       </c>
       <c r="L223">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
@@ -10232,7 +10235,7 @@
         <v>224</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -10260,7 +10263,7 @@
       </c>
       <c r="L224">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
@@ -10271,7 +10274,7 @@
         <v>225</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -10299,7 +10302,7 @@
       </c>
       <c r="L225">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
@@ -10310,7 +10313,7 @@
         <v>226</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -10338,7 +10341,7 @@
       </c>
       <c r="L226">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
@@ -10388,7 +10391,7 @@
         <v>228</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -10416,7 +10419,7 @@
       </c>
       <c r="L228">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
@@ -10427,7 +10430,7 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -10455,7 +10458,7 @@
       </c>
       <c r="L229">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
@@ -10622,7 +10625,7 @@
         <v>234</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -10650,7 +10653,7 @@
       </c>
       <c r="L234">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
@@ -11051,7 +11054,7 @@
         <v>245</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -11079,7 +11082,7 @@
       </c>
       <c r="L245">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
@@ -11285,7 +11288,7 @@
         <v>251</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -11313,7 +11316,7 @@
       </c>
       <c r="L251">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
@@ -11480,7 +11483,7 @@
         <v>256</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -11508,7 +11511,7 @@
       </c>
       <c r="L256">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
@@ -11831,7 +11834,7 @@
         <v>265</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -11859,7 +11862,7 @@
       </c>
       <c r="L265">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
@@ -11948,7 +11951,7 @@
         <v>268</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -11976,7 +11979,7 @@
       </c>
       <c r="L268">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
@@ -12182,7 +12185,7 @@
         <v>274</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -12210,7 +12213,7 @@
       </c>
       <c r="L274">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
@@ -12416,7 +12419,7 @@
         <v>280</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -12444,7 +12447,7 @@
       </c>
       <c r="L280">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
@@ -12611,7 +12614,7 @@
         <v>285</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -12639,7 +12642,7 @@
       </c>
       <c r="L285">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
@@ -13001,7 +13004,7 @@
         <v>295</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -13029,7 +13032,7 @@
       </c>
       <c r="L295">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
@@ -13352,7 +13355,7 @@
         <v>304</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -13380,7 +13383,7 @@
       </c>
       <c r="L304">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
@@ -13820,7 +13823,7 @@
         <v>316</v>
       </c>
       <c r="C316">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -13848,7 +13851,7 @@
       </c>
       <c r="L316">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
@@ -14093,7 +14096,7 @@
         <v>323</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -14121,7 +14124,7 @@
       </c>
       <c r="L323">
         <f t="shared" ref="L323:L358" si="5">+SUM(C323:K323)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -14132,7 +14135,7 @@
         <v>324</v>
       </c>
       <c r="C324">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -14160,7 +14163,7 @@
       </c>
       <c r="L324">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
@@ -14561,7 +14564,7 @@
         <v>335</v>
       </c>
       <c r="C335">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -14589,7 +14592,7 @@
       </c>
       <c r="L335">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -14600,7 +14603,7 @@
         <v>336</v>
       </c>
       <c r="C336">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -14628,7 +14631,7 @@
       </c>
       <c r="L336">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
@@ -14639,7 +14642,7 @@
         <v>337</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -14667,7 +14670,7 @@
       </c>
       <c r="L337">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
@@ -15029,7 +15032,7 @@
         <v>347</v>
       </c>
       <c r="C347">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -15057,7 +15060,7 @@
       </c>
       <c r="L347">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
@@ -15263,7 +15266,7 @@
         <v>353</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -15291,7 +15294,7 @@
       </c>
       <c r="L353">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
@@ -15507,15 +15510,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF4CF54CBB5CD1499C2E2D27BEA04D90" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dab7633707696f8d1e7914e9efb97ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca300967-0762-4098-8d02-5dc80472fd4e" xmlns:ns3="5398af92-0d01-431f-a958-f6aee8c7b261" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d8c570bb40c9c38b2f739d4fc0e027" ns2:_="" ns3:_="">
     <xsd:import namespace="ca300967-0762-4098-8d02-5dc80472fd4e"/>
@@ -15770,6 +15764,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
   <ds:schemaRefs>
@@ -15782,14 +15785,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15806,4 +15801,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85DAE435-EA11-43AB-875C-43F8CE085450}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6A37C1-1999-449F-A843-E32507F99321}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
@@ -1142,10 +1142,10 @@
     <t>Activity 9</t>
   </si>
   <si>
-    <t>Kick Off</t>
-  </si>
-  <si>
-    <t>Pall Mall Connect 4</t>
+    <t>Activity 1</t>
+  </si>
+  <si>
+    <t>Activity 2</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
   <dimension ref="A1:L358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15499,14 +15499,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15765,21 +15763,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
-    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15804,9 +15801,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
+    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6A37C1-1999-449F-A843-E32507F99321}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6049561D-EC15-4B9E-A895-320E881AF16E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t>Pers.No.</t>
   </si>
@@ -1146,6 +1146,21 @@
   </si>
   <si>
     <t>Activity 2</t>
+  </si>
+  <si>
+    <t>Andrade Diaz Hannah Pamelie</t>
+  </si>
+  <si>
+    <t>Avila Quilantan Melissa</t>
+  </si>
+  <si>
+    <t>Morales Umaña Alexia</t>
+  </si>
+  <si>
+    <t>Castruita Von Chong Gabriela Michelle</t>
+  </si>
+  <si>
+    <t>Rodarte Recio Alejandro</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
-  <dimension ref="A1:L358"/>
+  <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2906,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2931,7 +2946,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3608,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3633,7 +3648,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -4154,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4179,7 +4194,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4427,7 +4442,7 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4452,7 +4467,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -5012,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5037,7 +5052,7 @@
       </c>
       <c r="L90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -5558,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5583,7 +5598,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -5909,7 +5924,7 @@
         <v>10</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -5934,7 +5949,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -6065,7 +6080,7 @@
         <v>10</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6090,7 +6105,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -6182,7 +6197,7 @@
         <v>10</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6207,7 +6222,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -6221,7 +6236,7 @@
         <v>10</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6246,7 +6261,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -6416,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6441,7 +6456,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -6650,7 +6665,7 @@
         <v>10</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6675,7 +6690,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -6728,7 +6743,7 @@
         <v>10</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6753,7 +6768,7 @@
       </c>
       <c r="L134">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -6962,7 +6977,7 @@
         <v>10</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6987,7 +7002,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -7703,7 +7718,7 @@
         <v>10</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7728,7 +7743,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -8600,7 +8615,7 @@
         <v>10</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -8625,7 +8640,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -9692,7 +9707,7 @@
         <v>10</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -9717,7 +9732,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
@@ -9731,7 +9746,7 @@
         <v>10</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -9756,7 +9771,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -9770,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -9795,7 +9810,7 @@
       </c>
       <c r="L212">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
@@ -12695,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -12720,7 +12735,7 @@
       </c>
       <c r="L287">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
@@ -12890,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12915,7 +12930,7 @@
       </c>
       <c r="L292">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
@@ -12929,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12954,7 +12969,7 @@
       </c>
       <c r="L293">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
@@ -13670,7 +13685,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -13695,7 +13710,7 @@
       </c>
       <c r="L312">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
@@ -14099,7 +14114,7 @@
         <v>10</v>
       </c>
       <c r="D323">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -14124,7 +14139,7 @@
       </c>
       <c r="L323">
         <f t="shared" ref="L323:L358" si="5">+SUM(C323:K323)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -14138,7 +14153,7 @@
         <v>10</v>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -14163,7 +14178,7 @@
       </c>
       <c r="L324">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
@@ -14177,7 +14192,7 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -14202,7 +14217,7 @@
       </c>
       <c r="L325">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
@@ -14216,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -14241,7 +14256,7 @@
       </c>
       <c r="L326">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -14333,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -14358,7 +14373,7 @@
       </c>
       <c r="L329">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.35">
@@ -14489,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -14514,7 +14529,7 @@
       </c>
       <c r="L333">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.35">
@@ -14567,7 +14582,7 @@
         <v>10</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -14592,7 +14607,7 @@
       </c>
       <c r="L335">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -14606,7 +14621,7 @@
         <v>10</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -14631,7 +14646,7 @@
       </c>
       <c r="L336">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
@@ -14723,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -14748,7 +14763,7 @@
       </c>
       <c r="L339">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.35">
@@ -15490,6 +15505,201 @@
       <c r="L358">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>10075680</v>
+      </c>
+      <c r="B359" t="s">
+        <v>369</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <f t="shared" ref="L359" si="6">+SUM(C359:K359)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>85179265</v>
+      </c>
+      <c r="B360" t="s">
+        <v>370</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <f t="shared" ref="L360" si="7">+SUM(C360:K360)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>85156050</v>
+      </c>
+      <c r="B361" t="s">
+        <v>371</v>
+      </c>
+      <c r="C361">
+        <v>10</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <f t="shared" ref="L361" si="8">+SUM(C361:K361)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>85180042</v>
+      </c>
+      <c r="B362" t="s">
+        <v>372</v>
+      </c>
+      <c r="C362">
+        <v>10</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <f t="shared" ref="L362" si="9">+SUM(C362:K362)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>86185100</v>
+      </c>
+      <c r="B363" t="s">
+        <v>373</v>
+      </c>
+      <c r="C363">
+        <v>10</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <f t="shared" ref="L363" si="10">+SUM(C363:K363)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -15508,6 +15718,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF4CF54CBB5CD1499C2E2D27BEA04D90" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dab7633707696f8d1e7914e9efb97ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca300967-0762-4098-8d02-5dc80472fd4e" xmlns:ns3="5398af92-0d01-431f-a958-f6aee8c7b261" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d8c570bb40c9c38b2f739d4fc0e027" ns2:_="" ns3:_="">
     <xsd:import namespace="ca300967-0762-4098-8d02-5dc80472fd4e"/>
@@ -15762,17 +15983,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
   <ds:schemaRefs>
@@ -15782,6 +15992,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
+    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15798,15 +16019,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
-    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6049561D-EC15-4B9E-A895-320E881AF16E}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317B589A-FC96-4830-9C2A-F07816E99E6F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
   <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14696,7 +14696,7 @@
         <v>338</v>
       </c>
       <c r="C338">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="L338">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.35">
@@ -15709,26 +15709,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF4CF54CBB5CD1499C2E2D27BEA04D90" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dab7633707696f8d1e7914e9efb97ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca300967-0762-4098-8d02-5dc80472fd4e" xmlns:ns3="5398af92-0d01-431f-a958-f6aee8c7b261" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d8c570bb40c9c38b2f739d4fc0e027" ns2:_="" ns3:_="">
     <xsd:import namespace="ca300967-0762-4098-8d02-5dc80472fd4e"/>
@@ -15983,10 +15963,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
+    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16003,20 +16014,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
-    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{317B589A-FC96-4830-9C2A-F07816E99E6F}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6EB5C7-5C92-4C9A-815A-E37A34C4D92C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Bank" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bank!$A$1:$L$358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bank!$A$1:$L$363</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1121,15 +1121,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Activity 3</t>
-  </si>
-  <si>
-    <t>Activity 4</t>
-  </si>
-  <si>
-    <t>Activity 5</t>
-  </si>
-  <si>
     <t>Activity 6</t>
   </si>
   <si>
@@ -1142,12 +1133,6 @@
     <t>Activity 9</t>
   </si>
   <si>
-    <t>Activity 1</t>
-  </si>
-  <si>
-    <t>Activity 2</t>
-  </si>
-  <si>
     <t>Andrade Diaz Hannah Pamelie</t>
   </si>
   <si>
@@ -1161,6 +1146,21 @@
   </si>
   <si>
     <t>Rodarte Recio Alejandro</t>
+  </si>
+  <si>
+    <t>Kick Off</t>
+  </si>
+  <si>
+    <t>Connect 4</t>
+  </si>
+  <si>
+    <t>BT Sensa US</t>
+  </si>
+  <si>
+    <t>Sensa Experience</t>
+  </si>
+  <si>
+    <t>Snack</t>
   </si>
 </sst>
 </file>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
   <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C338" sqref="C338"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1554,31 +1554,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>359</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2099,13 +2099,13 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2138,13 +2138,13 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2612,10 +2612,10 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2807,10 +2807,10 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2924,10 +2924,10 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3113,13 +3113,13 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3158,10 +3158,10 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3236,10 +3236,10 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3704,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -4172,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4211,10 +4211,10 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="L71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -4445,7 +4445,7 @@
         <v>5</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="L78">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="L84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="L86">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="L88">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="L89">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -5303,7 +5303,7 @@
         <v>5</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="L97">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -5381,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="L99">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -5459,10 +5459,10 @@
         <v>5</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="L101">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="L103">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
@@ -5576,7 +5576,7 @@
         <v>10</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="L104">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="L106">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -5771,10 +5771,10 @@
         <v>10</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -5927,7 +5927,7 @@
         <v>10</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="L113">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -5960,13 +5960,13 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="L114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="L116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="L117">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -6200,10 +6200,10 @@
         <v>5</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="L120">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -6239,10 +6239,10 @@
         <v>10</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="L121">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="L124">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -6428,16 +6428,16 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <v>10</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -6506,7 +6506,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="L128">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
@@ -6668,10 +6668,10 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="L133">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -6824,10 +6824,10 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="L136">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="L137">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -6980,10 +6980,10 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="L143">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -7169,16 +7169,16 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D145">
         <v>15</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -7364,13 +7364,13 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="L150">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="L152">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -7481,13 +7481,13 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="L153">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="L156">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -7721,10 +7721,10 @@
         <v>10</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="L169">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="L171">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="L172">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="L181">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
@@ -8618,10 +8618,10 @@
         <v>5</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -8846,13 +8846,13 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="L188">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="L196">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="L200">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="L205">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
@@ -9671,10 +9671,10 @@
         <v>10</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="L210">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
@@ -9749,10 +9749,10 @@
         <v>15</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -9788,7 +9788,7 @@
         <v>5</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="L212">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
@@ -10061,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="L219">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="L225">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="L226">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="L228">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
@@ -10646,10 +10646,10 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="L234">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="L243">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="L251">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="L256">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F274">
         <v>0</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="L274">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="L280">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
@@ -12521,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="L282">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="L285">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
@@ -12707,16 +12707,16 @@
         <v>287</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D287">
         <v>5</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="L287">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="L292">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
@@ -12941,16 +12941,16 @@
         <v>293</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D293">
         <v>15</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="L293">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="L295">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
@@ -13376,10 +13376,10 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F304">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="L304">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
@@ -13643,13 +13643,13 @@
         <v>311</v>
       </c>
       <c r="C311">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="L311">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.35">
@@ -13691,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="L312">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
@@ -13727,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="L313">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="L314">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.35">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="L321">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
@@ -14117,10 +14117,10 @@
         <v>15</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="L323">
         <f t="shared" ref="L323:L358" si="5">+SUM(C323:K323)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -14156,10 +14156,10 @@
         <v>5</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G324">
         <v>0</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="L324">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
@@ -14189,16 +14189,16 @@
         <v>325</v>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D325">
         <v>10</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="L325">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="L326">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="L327">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
@@ -14390,10 +14390,10 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="L330">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
@@ -14585,10 +14585,10 @@
         <v>5</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G335">
         <v>0</v>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="L335">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -14663,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="L337">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="L338">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.35">
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="L347">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
@@ -15287,10 +15287,10 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="L353">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
@@ -15482,10 +15482,10 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="L358">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.35">
@@ -15512,7 +15512,7 @@
         <v>10075680</v>
       </c>
       <c r="B359" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -15551,7 +15551,7 @@
         <v>85179265</v>
       </c>
       <c r="B360" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -15560,7 +15560,7 @@
         <v>5</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="L360">
         <f t="shared" ref="L360" si="7">+SUM(C360:K360)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.35">
@@ -15590,7 +15590,7 @@
         <v>85156050</v>
       </c>
       <c r="B361" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C361">
         <v>10</v>
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="L361">
         <f t="shared" ref="L361" si="8">+SUM(C361:K361)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.35">
@@ -15629,7 +15629,7 @@
         <v>85180042</v>
       </c>
       <c r="B362" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C362">
         <v>10</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="L362">
         <f t="shared" ref="L362" si="9">+SUM(C362:K362)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.35">
@@ -15668,7 +15668,7 @@
         <v>86185100</v>
       </c>
       <c r="B363" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C363">
         <v>10</v>
@@ -15680,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -15699,16 +15699,27 @@
       </c>
       <c r="L363">
         <f t="shared" ref="L363" si="10">+SUM(C363:K363)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L363" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF4CF54CBB5CD1499C2E2D27BEA04D90" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dab7633707696f8d1e7914e9efb97ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca300967-0762-4098-8d02-5dc80472fd4e" xmlns:ns3="5398af92-0d01-431f-a958-f6aee8c7b261" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d8c570bb40c9c38b2f739d4fc0e027" ns2:_="" ns3:_="">
     <xsd:import namespace="ca300967-0762-4098-8d02-5dc80472fd4e"/>
@@ -15963,7 +15974,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
@@ -15974,16 +15985,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16002,7 +16012,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16011,12 +16021,4 @@
     <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6EB5C7-5C92-4C9A-815A-E37A34C4D92C}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC705CA4-6283-4A67-A96E-756EF8F45519}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
   <dimension ref="A1:L363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="F353" sqref="F353"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2813,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2930,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3164,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3242,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3710,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -4178,7 +4178,7 @@
         <v>5</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4919,7 +4919,7 @@
         <v>5</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="L87">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
         <v>5</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="L109">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="L114">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -6050,7 +6050,7 @@
         <v>15</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="L116">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -6440,7 +6440,7 @@
         <v>5</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="L126">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="L128">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
@@ -6674,7 +6674,7 @@
         <v>5</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="L132">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="L137">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -6986,7 +6986,7 @@
         <v>5</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="L140">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -7016,16 +7016,16 @@
         <v>10</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="L141">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -7181,7 +7181,7 @@
         <v>10</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="L145">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -7220,7 +7220,7 @@
         <v>5</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="L146">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -7259,7 +7259,7 @@
         <v>5</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="L147">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="L150">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="L152">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -7727,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="L159">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="L172">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="L175">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
@@ -8624,7 +8624,7 @@
         <v>5</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="L182">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -9677,7 +9677,7 @@
         <v>5</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="L209">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
@@ -9755,7 +9755,7 @@
         <v>5</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="L211">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -10067,7 +10067,7 @@
         <v>5</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="L219">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="L220">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="L223">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="L228">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
@@ -10652,7 +10652,7 @@
         <v>5</v>
       </c>
       <c r="G234">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="L234">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="L235">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="L236">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="L243">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="L248">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="L251">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -11370,7 +11370,7 @@
       </c>
       <c r="L252">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="L254">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
@@ -11588,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="L258">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="G259">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="L259">
         <f t="shared" ref="L259:L322" si="4">+SUM(C259:K259)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="L261">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="L263">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="L272">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
@@ -12719,7 +12719,7 @@
         <v>5</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="L287">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
@@ -12914,7 +12914,7 @@
         <v>5</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="L292">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="G298">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="L298">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
@@ -13382,7 +13382,7 @@
         <v>10</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="L304">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
@@ -13694,7 +13694,7 @@
         <v>5</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="L312">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
@@ -14123,7 +14123,7 @@
         <v>5</v>
       </c>
       <c r="G323">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="L323">
         <f t="shared" ref="L323:L358" si="5">+SUM(C323:K323)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -14201,7 +14201,7 @@
         <v>5</v>
       </c>
       <c r="G325">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="L325">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
@@ -14240,7 +14240,7 @@
         <v>5</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="L326">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -14267,19 +14267,19 @@
         <v>327</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D327">
         <v>0</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F327">
         <v>15</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H327">
         <v>0</v>
@@ -14295,7 +14295,7 @@
       </c>
       <c r="L327">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
@@ -14591,7 +14591,7 @@
         <v>5</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="L335">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="L336">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
@@ -14669,7 +14669,7 @@
         <v>0</v>
       </c>
       <c r="G337">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="L337">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
@@ -15293,7 +15293,7 @@
         <v>5</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H353">
         <v>0</v>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="L353">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
@@ -15476,7 +15476,7 @@
         <v>358</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -15488,7 +15488,7 @@
         <v>5</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="L358">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.35">
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H361">
         <v>0</v>
@@ -15621,7 +15621,7 @@
       </c>
       <c r="L361">
         <f t="shared" ref="L361" si="8">+SUM(C361:K361)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.35">
@@ -15683,7 +15683,7 @@
         <v>5</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -15699,7 +15699,7 @@
       </c>
       <c r="L363">
         <f t="shared" ref="L363" si="10">+SUM(C363:K363)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -15711,6 +15711,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15719,7 +15730,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF4CF54CBB5CD1499C2E2D27BEA04D90" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dab7633707696f8d1e7914e9efb97ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca300967-0762-4098-8d02-5dc80472fd4e" xmlns:ns3="5398af92-0d01-431f-a958-f6aee8c7b261" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d8c570bb40c9c38b2f739d4fc0e027" ns2:_="" ns3:_="">
     <xsd:import namespace="ca300967-0762-4098-8d02-5dc80472fd4e"/>
@@ -15974,18 +15985,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
+    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -15993,7 +16004,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16010,15 +16021,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
-    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Brands Week Bank.xlsx
+++ b/Brands Week Bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bat.sharepoint.com/sites/HRBPS2021/Shared Documents/General/México GBS Hub/Learning and Development/Brands Week/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85152272\BAT\DBS AmSSA HRBPs team - México GBS Hub\Learning and Development\Brands Week\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="8_{C85A1064-0C44-460C-AD09-C46AC1B6110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDB4B964-E775-4514-A67F-F1C4E876BFD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C313AEA3-B564-4E3E-BAA7-A3138234C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{174CA05A-7862-4036-88CE-C59933BDC19F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Bank" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bank!$A$1:$K$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bank!$A$1:$K$363</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>Pers.No.</t>
   </si>
@@ -1089,9 +1089,6 @@
   </si>
   <si>
     <t>Ballesteros Elizondo Jesus Gregorio</t>
-  </si>
-  <si>
-    <t>Melgarejo Fuentes Manuel Alejandro</t>
   </si>
   <si>
     <t>Perez Castillo Ivonne</t>
@@ -1546,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}">
-  <dimension ref="A1:K364"/>
+  <dimension ref="A1:K363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,31 +1564,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1626,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>+SUM(C2:J2)</f>
+        <f t="shared" ref="K2:K65" si="0">+SUM(C2:J2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>+SUM(C3:J3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>+SUM(C4:J4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>+SUM(C5:J5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1770,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>+SUM(C6:J6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>+SUM(C7:J7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1842,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>+SUM(C8:J8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1878,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f>+SUM(C9:J9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1914,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>+SUM(C10:J10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1950,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>+SUM(C11:J11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1986,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f>+SUM(C12:J12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2022,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f>+SUM(C13:J13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2055,11 +2052,11 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <f>+SUM(C14:J14)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -2094,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>+SUM(C15:J15)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -2124,14 +2121,14 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <f>+SUM(C16:J16)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2166,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>+SUM(C17:J17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f>+SUM(C18:J18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2238,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>+SUM(C19:J19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2274,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f>+SUM(C20:J20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2310,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f>+SUM(C21:J21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2346,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f>+SUM(C22:J22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2382,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f>+SUM(C23:J23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2418,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f>+SUM(C24:J24)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2454,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f>+SUM(C25:J25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2484,14 +2481,14 @@
         <v>5</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <f>+SUM(C26:J26)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -2526,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f>+SUM(C27:J27)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2559,11 +2556,11 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K28">
-        <f>+SUM(C28:J28)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2598,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>+SUM(C29:J29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2634,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>+SUM(C30:J30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f>+SUM(C31:J31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2700,14 +2697,14 @@
         <v>5</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <f>+SUM(C32:J32)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2736,14 +2733,14 @@
         <v>5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <f>+SUM(C33:J33)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2772,14 +2769,14 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <f>+SUM(C34:J34)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2814,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <f>+SUM(C35:J35)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2844,14 +2841,14 @@
         <v>5</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <f>+SUM(C36:J36)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2886,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <f>+SUM(C37:J37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2922,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <f>+SUM(C38:J38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2958,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <f>+SUM(C39:J39)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -2994,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <f>+SUM(C40:J40)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -3030,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f>+SUM(C41:J41)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -3060,14 +3057,14 @@
         <v>5</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <f>+SUM(C42:J42)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -3096,14 +3093,14 @@
         <v>5</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <f>+SUM(C43:J43)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -3138,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f>+SUM(C44:J44)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3171,11 +3168,11 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45">
-        <f>+SUM(C45:J45)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -3210,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <f>+SUM(C46:J46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3246,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f>+SUM(C47:J47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3282,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f>+SUM(C48:J48)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3318,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f>+SUM(C49:J49)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3354,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f>+SUM(C50:J50)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3390,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f>+SUM(C51:J51)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3426,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f>+SUM(C52:J52)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3462,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f>+SUM(C53:J53)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3495,11 +3492,11 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K54">
-        <f>+SUM(C54:J54)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3528,14 +3525,14 @@
         <v>5</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K55">
-        <f>+SUM(C55:J55)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -3570,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <f>+SUM(C56:J56)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <f>+SUM(C57:J57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3642,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <f>+SUM(C58:J58)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3678,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <f>+SUM(C59:J59)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3714,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <f>+SUM(C60:J60)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3750,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <f>+SUM(C61:J61)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3786,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <f>+SUM(C62:J62)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3816,14 +3813,14 @@
         <v>5</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <f>+SUM(C63:J63)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3858,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <f>+SUM(C64:J64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3894,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <f>+SUM(C65:J65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3930,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <f>+SUM(C66:J66)</f>
+        <f t="shared" ref="K66:K129" si="1">+SUM(C66:J66)</f>
         <v>10</v>
       </c>
     </row>
@@ -3960,14 +3957,14 @@
         <v>5</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K67">
-        <f>+SUM(C67:J67)</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3996,14 +3993,14 @@
         <v>5</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <f>+SUM(C68:J68)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -4038,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <f>+SUM(C69:J69)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4068,14 +4065,14 @@
         <v>5</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K70">
-        <f>+SUM(C70:J70)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -4110,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <f>+SUM(C71:J71)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4143,11 +4140,11 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <f>+SUM(C72:J72)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -4182,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <f>+SUM(C73:J73)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4212,14 +4209,14 @@
         <v>5</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <f>+SUM(C74:J74)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -4254,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <f>+SUM(C75:J75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4290,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <f>+SUM(C76:J76)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4326,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <f>+SUM(C77:J77)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -4362,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f>+SUM(C78:J78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <f>+SUM(C79:J79)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4434,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <f>+SUM(C80:J80)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4470,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <f>+SUM(C81:J81)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -4506,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <f>+SUM(C82:J82)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -4542,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <f>+SUM(C83:J83)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -4578,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <f>+SUM(C84:J84)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4614,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <f>+SUM(C85:J85)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -4644,14 +4641,14 @@
         <v>5</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K86">
-        <f>+SUM(C86:J86)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -4680,14 +4677,14 @@
         <v>5</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <f>+SUM(C87:J87)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4719,11 +4716,11 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K88">
-        <f>+SUM(C88:J88)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4755,11 +4752,11 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K89">
-        <f>+SUM(C89:J89)</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4794,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <f>+SUM(C90:J90)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4830,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <f>+SUM(C91:J91)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4866,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <f>+SUM(C92:J92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4902,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <f>+SUM(C93:J93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4938,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <f>+SUM(C94:J94)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4974,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <f>+SUM(C95:J95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5004,14 +5001,14 @@
         <v>5</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K96">
-        <f>+SUM(C96:J96)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -5046,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <f>+SUM(C97:J97)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5076,14 +5073,14 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K98">
-        <f>+SUM(C98:J98)</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -5118,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <f>+SUM(C99:J99)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5148,14 +5145,14 @@
         <v>5</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K100">
-        <f>+SUM(C100:J100)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -5190,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <f>+SUM(C101:J101)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5226,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <f>+SUM(C102:J102)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5256,14 +5253,14 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K103">
-        <f>+SUM(C103:J103)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -5298,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <f>+SUM(C104:J104)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -5334,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <f>+SUM(C105:J105)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -5364,14 +5361,14 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K106">
-        <f>+SUM(C106:J106)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -5406,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <f>+SUM(C107:J107)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5436,14 +5433,14 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K108">
-        <f>+SUM(C108:J108)</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -5478,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <f>+SUM(C109:J109)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5514,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <f>+SUM(C110:J110)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5550,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <f>+SUM(C111:J111)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5580,14 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K112">
-        <f>+SUM(C112:J112)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -5616,14 +5613,14 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <f>+SUM(C113:J113)</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -5658,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <f>+SUM(C114:J114)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5688,14 +5685,14 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K115">
-        <f>+SUM(C115:J115)</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -5730,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <f>+SUM(C116:J116)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -5766,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <f>+SUM(C117:J117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5802,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <f>+SUM(C118:J118)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5832,14 +5829,14 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K119">
-        <f>+SUM(C119:J119)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -5868,14 +5865,14 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K120">
-        <f>+SUM(C120:J120)</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -5910,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <f>+SUM(C121:J121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5946,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <f>+SUM(C122:J122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5982,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <f>+SUM(C123:J123)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -6018,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <f>+SUM(C124:J124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6048,14 +6045,14 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K125">
-        <f>+SUM(C125:J125)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -6090,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <f>+SUM(C126:J126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6126,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <f>+SUM(C127:J127)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -6162,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <f>+SUM(C128:J128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6198,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <f>+SUM(C129:J129)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6234,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <f>+SUM(C130:J130)</f>
+        <f t="shared" ref="K130:K193" si="2">+SUM(C130:J130)</f>
         <v>0</v>
       </c>
     </row>
@@ -6267,11 +6264,11 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K131">
-        <f>+SUM(C131:J131)</f>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -6306,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <f>+SUM(C132:J132)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -6342,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <f>+SUM(C133:J133)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -6378,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <f>+SUM(C134:J134)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6414,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <f>+SUM(C135:J135)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6447,11 +6444,11 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K136">
-        <f>+SUM(C136:J136)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
@@ -6486,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <f>+SUM(C137:J137)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6522,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <f>+SUM(C138:J138)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6552,14 +6549,14 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K139">
-        <f>+SUM(C139:J139)</f>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -6588,14 +6585,14 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <f>+SUM(C140:J140)</f>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
@@ -6630,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <f>+SUM(C141:J141)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6660,14 +6657,14 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K142">
-        <f>+SUM(C142:J142)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
@@ -6702,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <f>+SUM(C143:J143)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6732,14 +6729,14 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K144">
-        <f>+SUM(C144:J144)</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -6774,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <f>+SUM(C145:J145)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -6804,14 +6801,14 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K146">
-        <f>+SUM(C146:J146)</f>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
@@ -6846,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <f>+SUM(C147:J147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6882,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <f>+SUM(C148:J148)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6915,11 +6912,11 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K149">
-        <f>+SUM(C149:J149)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -6954,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <f>+SUM(C150:J150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6990,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <f>+SUM(C151:J151)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7026,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <f>+SUM(C152:J152)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -7062,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <f>+SUM(C153:J153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7098,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <f>+SUM(C154:J154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7134,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <f>+SUM(C155:J155)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -7170,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <f>+SUM(C156:J156)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -7206,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <f>+SUM(C157:J157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7236,14 +7233,14 @@
         <v>5</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K158">
-        <f>+SUM(C158:J158)</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -7278,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <f>+SUM(C159:J159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7314,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <f>+SUM(C160:J160)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7350,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="K161">
-        <f>+SUM(C161:J161)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7386,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="K162">
-        <f>+SUM(C162:J162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7422,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <f>+SUM(C163:J163)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7452,14 +7449,14 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164">
-        <f>+SUM(C164:J164)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
@@ -7488,14 +7485,14 @@
         <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165">
-        <f>+SUM(C165:J165)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -7530,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="K166">
-        <f>+SUM(C166:J166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="K167">
-        <f>+SUM(C167:J167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7596,14 +7593,14 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <f>+SUM(C168:J168)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
@@ -7638,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="K169">
-        <f>+SUM(C169:J169)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7674,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="K170">
-        <f>+SUM(C170:J170)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7704,14 +7701,14 @@
         <v>5</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
       <c r="K171">
-        <f>+SUM(C171:J171)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -7746,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <f>+SUM(C172:J172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7782,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <f>+SUM(C173:J173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7818,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <f>+SUM(C174:J174)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -7854,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="K175">
-        <f>+SUM(C175:J175)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7890,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <f>+SUM(C176:J176)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7926,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="K177">
-        <f>+SUM(C177:J177)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7962,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <f>+SUM(C178:J178)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7998,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <f>+SUM(C179:J179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8031,11 +8028,11 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K180">
-        <f>+SUM(C180:J180)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
@@ -8070,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <f>+SUM(C181:J181)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
@@ -8106,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <f>+SUM(C182:J182)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8142,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <f>+SUM(C183:J183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8178,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="K184">
-        <f>+SUM(C184:J184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8214,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <f>+SUM(C185:J185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8250,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="K186">
-        <f>+SUM(C186:J186)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8283,11 +8280,11 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K187">
-        <f>+SUM(C187:J187)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
@@ -8322,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <f>+SUM(C188:J188)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8358,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <f>+SUM(C189:J189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8394,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <f>+SUM(C190:J190)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -8430,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <f>+SUM(C191:J191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8466,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <f>+SUM(C192:J192)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -8499,11 +8496,11 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K193">
-        <f>+SUM(C193:J193)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
@@ -8538,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="K194">
-        <f>+SUM(C194:J194)</f>
+        <f t="shared" ref="K194:K257" si="3">+SUM(C194:J194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8571,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <f>+SUM(C195:J195)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -8607,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <f>+SUM(C196:J196)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8643,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <f>+SUM(C197:J197)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8679,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="K198">
-        <f>+SUM(C198:J198)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8715,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <f>+SUM(C199:J199)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8751,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="K200">
-        <f>+SUM(C200:J200)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8787,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <f>+SUM(C201:J201)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -8823,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="K202">
-        <f>+SUM(C202:J202)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8859,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <f>+SUM(C203:J203)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8895,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="K204">
-        <f>+SUM(C204:J204)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -8931,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <f>+SUM(C205:J205)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -8967,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="K206">
-        <f>+SUM(C206:J206)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9003,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="K207">
-        <f>+SUM(C207:J207)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9033,14 +9030,14 @@
         <v>5</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K208">
-        <f>+SUM(C208:J208)</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
@@ -9069,14 +9066,14 @@
         <v>5</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K209">
-        <f>+SUM(C209:J209)</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
@@ -9111,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="K210">
-        <f>+SUM(C210:J210)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
@@ -9144,11 +9141,11 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K211">
-        <f>+SUM(C211:J211)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
@@ -9183,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="K212">
-        <f>+SUM(C212:J212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9219,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="K213">
-        <f>+SUM(C213:J213)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9255,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="K214">
-        <f>+SUM(C214:J214)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9291,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="K215">
-        <f>+SUM(C215:J215)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9327,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K216">
-        <f>+SUM(C216:J216)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9363,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="K217">
-        <f>+SUM(C217:J217)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9393,14 +9390,14 @@
         <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K218">
-        <f>+SUM(C218:J218)</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -9432,11 +9429,11 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K219">
-        <f>+SUM(C219:J219)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
@@ -9471,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="K220">
-        <f>+SUM(C220:J220)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9507,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="K221">
-        <f>+SUM(C221:J221)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9540,11 +9537,11 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K222">
-        <f>+SUM(C222:J222)</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
@@ -9579,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="K223">
-        <f>+SUM(C223:J223)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -9609,14 +9606,14 @@
         <v>5</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J224">
         <v>0</v>
       </c>
       <c r="K224">
-        <f>+SUM(C224:J224)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
@@ -9645,14 +9642,14 @@
         <v>5</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J225">
         <v>0</v>
       </c>
       <c r="K225">
-        <f>+SUM(C225:J225)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
@@ -9687,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="K226">
-        <f>+SUM(C226:J226)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9720,11 +9717,11 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K227">
-        <f>+SUM(C227:J227)</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
@@ -9756,11 +9753,11 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K228">
-        <f>+SUM(C228:J228)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
@@ -9792,11 +9789,11 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K229">
-        <f>+SUM(C229:J229)</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
@@ -9831,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="K230">
-        <f>+SUM(C230:J230)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9867,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="K231">
-        <f>+SUM(C231:J231)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9903,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="K232">
-        <f>+SUM(C232:J232)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9933,14 +9930,14 @@
         <v>5</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J233">
         <v>0</v>
       </c>
       <c r="K233">
-        <f>+SUM(C233:J233)</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
@@ -9975,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="K234">
-        <f>+SUM(C234:J234)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10008,11 +10005,11 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K235">
-        <f>+SUM(C235:J235)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
@@ -10047,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <f>+SUM(C236:J236)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10083,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="K237">
-        <f>+SUM(C237:J237)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10119,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="K238">
-        <f>+SUM(C238:J238)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10155,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <f>+SUM(C239:J239)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10191,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="K240">
-        <f>+SUM(C240:J240)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10227,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="K241">
-        <f>+SUM(C241:J241)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10260,11 +10257,11 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K242">
-        <f>+SUM(C242:J242)</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
@@ -10299,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="K243">
-        <f>+SUM(C243:J243)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10335,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="K244">
-        <f>+SUM(C244:J244)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -10371,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <f>+SUM(C245:J245)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10407,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="K246">
-        <f>+SUM(C246:J246)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10443,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="K247">
-        <f>+SUM(C247:J247)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10479,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="K248">
-        <f>+SUM(C248:J248)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10515,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="K249">
-        <f>+SUM(C249:J249)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10545,14 +10542,14 @@
         <v>5</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K250">
-        <f>+SUM(C250:J250)</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
@@ -10587,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="K251">
-        <f>+SUM(C251:J251)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10623,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="K252">
-        <f>+SUM(C252:J252)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -10659,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="K253">
-        <f>+SUM(C253:J253)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10695,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="K254">
-        <f>+SUM(C254:J254)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10728,11 +10725,11 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K255">
-        <f>+SUM(C255:J255)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
@@ -10767,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <f>+SUM(C256:J256)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -10803,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="K257">
-        <f>+SUM(C257:J257)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -10836,11 +10833,11 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K258">
-        <f>+SUM(C258:J258)</f>
-        <v>10</v>
+        <f t="shared" ref="K258:K321" si="4">+SUM(C258:J258)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
@@ -10875,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="K259">
-        <f>+SUM(C259:J259)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10911,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="K260">
-        <f>+SUM(C260:J260)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -10947,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="K261">
-        <f>+SUM(C261:J261)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -10983,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="K262">
-        <f>+SUM(C262:J262)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11019,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="K263">
-        <f>+SUM(C263:J263)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11055,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="K264">
-        <f>+SUM(C264:J264)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -11091,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="K265">
-        <f>+SUM(C265:J265)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11127,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="K266">
-        <f>+SUM(C266:J266)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11163,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="K267">
-        <f>+SUM(C267:J267)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -11199,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="K268">
-        <f>+SUM(C268:J268)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11235,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="K269">
-        <f>+SUM(C269:J269)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11268,11 +11265,11 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K270">
-        <f>+SUM(C270:J270)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
@@ -11307,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="K271">
-        <f>+SUM(C271:J271)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11343,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="K272">
-        <f>+SUM(C272:J272)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11379,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K273">
-        <f>+SUM(C273:J273)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -11415,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="K274">
-        <f>+SUM(C274:J274)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11451,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="K275">
-        <f>+SUM(C275:J275)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11487,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="K276">
-        <f>+SUM(C276:J276)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11523,7 +11520,7 @@
         <v>0</v>
       </c>
       <c r="K277">
-        <f>+SUM(C277:J277)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11559,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="K278">
-        <f>+SUM(C278:J278)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11589,14 +11586,14 @@
         <v>0</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J279">
         <v>0</v>
       </c>
       <c r="K279">
-        <f>+SUM(C279:J279)</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
@@ -11631,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="K280">
-        <f>+SUM(C280:J280)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11667,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="K281">
-        <f>+SUM(C281:J281)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -11703,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="K282">
-        <f>+SUM(C282:J282)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11739,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="K283">
-        <f>+SUM(C283:J283)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11772,11 +11769,11 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K284">
-        <f>+SUM(C284:J284)</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
@@ -11811,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="K285">
-        <f>+SUM(C285:J285)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11847,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="K286">
-        <f>+SUM(C286:J286)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
@@ -11883,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="K287">
-        <f>+SUM(C287:J287)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11919,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="K288">
-        <f>+SUM(C288:J288)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11955,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="K289">
-        <f>+SUM(C289:J289)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -11991,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="K290">
-        <f>+SUM(C290:J290)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12021,14 +12018,14 @@
         <v>5</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J291">
         <v>0</v>
       </c>
       <c r="K291">
-        <f>+SUM(C291:J291)</f>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
@@ -12057,14 +12054,14 @@
         <v>0</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J292">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K292">
-        <f>+SUM(C292:J292)</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
@@ -12099,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="K293">
-        <f>+SUM(C293:J293)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12129,14 +12126,14 @@
         <v>0</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J294">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K294">
-        <f>+SUM(C294:J294)</f>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
@@ -12168,11 +12165,11 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K295">
-        <f>+SUM(C295:J295)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
@@ -12207,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="K296">
-        <f>+SUM(C296:J296)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12219,7 +12216,7 @@
         <v>297</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -12240,11 +12237,11 @@
         <v>0</v>
       </c>
       <c r="J297">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K297">
-        <f>+SUM(C297:J297)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
@@ -12279,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="K298">
-        <f>+SUM(C298:J298)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12315,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K299">
-        <f>+SUM(C299:J299)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12351,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="K300">
-        <f>+SUM(C300:J300)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12387,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="K301">
-        <f>+SUM(C301:J301)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12423,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="K302">
-        <f>+SUM(C302:J302)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12453,14 +12450,14 @@
         <v>5</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J303">
         <v>0</v>
       </c>
       <c r="K303">
-        <f>+SUM(C303:J303)</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
@@ -12492,11 +12489,11 @@
         <v>0</v>
       </c>
       <c r="J304">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K304">
-        <f>+SUM(C304:J304)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.35">
@@ -12531,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="K305">
-        <f>+SUM(C305:J305)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12567,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="K306">
-        <f>+SUM(C306:J306)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12603,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="K307">
-        <f>+SUM(C307:J307)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12639,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="K308">
-        <f>+SUM(C308:J308)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12675,7 +12672,7 @@
         <v>0</v>
       </c>
       <c r="K309">
-        <f>+SUM(C309:J309)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12711,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="K310">
-        <f>+SUM(C310:J310)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
@@ -12741,14 +12738,14 @@
         <v>5</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K311">
-        <f>+SUM(C311:J311)</f>
-        <v>35</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.35">
@@ -12783,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="K312">
-        <f>+SUM(C312:J312)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12819,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="K313">
-        <f>+SUM(C313:J313)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -12855,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="K314">
-        <f>+SUM(C314:J314)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12888,11 +12885,11 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K315">
-        <f>+SUM(C315:J315)</f>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
@@ -12927,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="K316">
-        <f>+SUM(C316:J316)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12963,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="K317">
-        <f>+SUM(C317:J317)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12999,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="K318">
-        <f>+SUM(C318:J318)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
     </row>
@@ -13035,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="K319">
-        <f>+SUM(C319:J319)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13065,14 +13062,14 @@
         <v>0</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J320">
         <v>0</v>
       </c>
       <c r="K320">
-        <f>+SUM(C320:J320)</f>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.35">
@@ -13107,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="K321">
-        <f>+SUM(C321:J321)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -13137,14 +13134,14 @@
         <v>5</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J322">
         <v>0</v>
       </c>
       <c r="K322">
-        <f>+SUM(C322:J322)</f>
-        <v>45</v>
+        <f t="shared" ref="K322:K363" si="5">+SUM(C322:J322)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.35">
@@ -13173,14 +13170,14 @@
         <v>5</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J323">
         <v>0</v>
       </c>
       <c r="K323">
-        <f>+SUM(C323:J323)</f>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.35">
@@ -13209,14 +13206,14 @@
         <v>5</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J324">
         <v>0</v>
       </c>
       <c r="K324">
-        <f>+SUM(C324:J324)</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.35">
@@ -13245,14 +13242,14 @@
         <v>5</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J325">
         <v>0</v>
       </c>
       <c r="K325">
-        <f>+SUM(C325:J325)</f>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.35">
@@ -13281,14 +13278,14 @@
         <v>5</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J326">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K326">
-        <f>+SUM(C326:J326)</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.35">
@@ -13323,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="K327">
-        <f>+SUM(C327:J327)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13356,11 +13353,11 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K328">
-        <f>+SUM(C328:J328)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.35">
@@ -13389,14 +13386,14 @@
         <v>5</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J329">
         <v>0</v>
       </c>
       <c r="K329">
-        <f>+SUM(C329:J329)</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.35">
@@ -13431,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="K330">
-        <f>+SUM(C330:J330)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13467,7 +13464,7 @@
         <v>0</v>
       </c>
       <c r="K331">
-        <f>+SUM(C331:J331)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13497,14 +13494,14 @@
         <v>0</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J332">
         <v>0</v>
       </c>
       <c r="K332">
-        <f>+SUM(C332:J332)</f>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.35">
@@ -13539,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="K333">
-        <f>+SUM(C333:J333)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13575,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="K334">
-        <f>+SUM(C334:J334)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
@@ -13608,11 +13605,11 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K335">
-        <f>+SUM(C335:J335)</f>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.35">
@@ -13647,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="K336">
-        <f>+SUM(C336:J336)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
@@ -13683,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="K337">
-        <f>+SUM(C337:J337)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -13716,11 +13713,11 @@
         <v>0</v>
       </c>
       <c r="J338">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K338">
-        <f>+SUM(C338:J338)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.35">
@@ -13755,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="K339">
-        <f>+SUM(C339:J339)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13788,11 +13785,11 @@
         <v>0</v>
       </c>
       <c r="J340">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K340">
-        <f>+SUM(C340:J340)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.35">
@@ -13827,7 +13824,7 @@
         <v>0</v>
       </c>
       <c r="K341">
-        <f>+SUM(C341:J341)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13863,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="K342">
-        <f>+SUM(C342:J342)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13899,7 +13896,7 @@
         <v>0</v>
       </c>
       <c r="K343">
-        <f>+SUM(C343:J343)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13935,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="K344">
-        <f>+SUM(C344:J344)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -13971,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="K345">
-        <f>+SUM(C345:J345)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14007,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="K346">
-        <f>+SUM(C346:J346)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
@@ -14043,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="K347">
-        <f>+SUM(C347:J347)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14079,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="K348">
-        <f>+SUM(C348:J348)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -14115,13 +14112,13 @@
         <v>0</v>
       </c>
       <c r="K349">
-        <f>+SUM(C349:J349)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>76005390</v>
+        <v>76005650</v>
       </c>
       <c r="B350" t="s">
         <v>350</v>
@@ -14151,67 +14148,67 @@
         <v>0</v>
       </c>
       <c r="K350">
-        <f>+SUM(C350:J350)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>76005650</v>
+        <v>76005784</v>
       </c>
       <c r="B351" t="s">
         <v>351</v>
       </c>
       <c r="C351">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D351">
         <v>0</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H351">
         <v>0</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J351">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K351">
-        <f>+SUM(C351:J351)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>76005784</v>
+        <v>76005888</v>
       </c>
       <c r="B352" t="s">
         <v>352</v>
       </c>
       <c r="C352">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D352">
         <v>0</v>
       </c>
       <c r="E352">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F352">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G352">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -14223,13 +14220,13 @@
         <v>0</v>
       </c>
       <c r="K352">
-        <f>+SUM(C352:J352)</f>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>76005888</v>
+        <v>76006238</v>
       </c>
       <c r="B353" t="s">
         <v>353</v>
@@ -14259,13 +14256,13 @@
         <v>0</v>
       </c>
       <c r="K353">
-        <f>+SUM(C353:J353)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>76006238</v>
+        <v>76006930</v>
       </c>
       <c r="B354" t="s">
         <v>354</v>
@@ -14295,13 +14292,13 @@
         <v>0</v>
       </c>
       <c r="K354">
-        <f>+SUM(C354:J354)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>76006930</v>
+        <v>76007442</v>
       </c>
       <c r="B355" t="s">
         <v>355</v>
@@ -14331,85 +14328,85 @@
         <v>0</v>
       </c>
       <c r="K355">
-        <f>+SUM(C355:J355)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>76007442</v>
+        <v>85066419</v>
       </c>
       <c r="B356" t="s">
         <v>356</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D356">
         <v>0</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F356">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
       <c r="J356">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K356">
-        <f>+SUM(C356:J356)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>85066419</v>
+        <v>10075680</v>
       </c>
       <c r="B357" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C357">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E357">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F357">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G357">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H357">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I357">
         <v>0</v>
       </c>
       <c r="J357">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K357">
-        <f>+SUM(C357:J357)</f>
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>10075680</v>
+        <v>85179265</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
@@ -14421,7 +14418,7 @@
         <v>5</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -14433,28 +14430,28 @@
         <v>0</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J358">
         <v>0</v>
       </c>
       <c r="K358">
-        <f>+SUM(C358:J358)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>85179265</v>
+        <v>85156050</v>
       </c>
       <c r="B359" t="s">
         <v>360</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D359">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E359">
         <v>5</v>
@@ -14463,25 +14460,25 @@
         <v>0</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J359">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K359">
-        <f>+SUM(C359:J359)</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>85156050</v>
+        <v>85180042</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
@@ -14499,25 +14496,25 @@
         <v>0</v>
       </c>
       <c r="G360">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H360">
         <v>5</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J360">
         <v>0</v>
       </c>
       <c r="K360">
-        <f>+SUM(C360:J360)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>85180042</v>
+        <v>86185100</v>
       </c>
       <c r="B361" t="s">
         <v>362</v>
@@ -14529,85 +14526,73 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G361">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H361">
         <v>5</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J361">
         <v>0</v>
       </c>
       <c r="K361">
-        <f>+SUM(C361:J361)</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A362">
-        <v>86185100</v>
+      <c r="A362" s="2">
+        <v>85186145</v>
       </c>
       <c r="B362" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C362">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D362">
         <v>0</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F362">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G362">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H362">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I362">
         <v>0</v>
       </c>
       <c r="J362">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K362">
-        <f>+SUM(C362:J362)</f>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A363" s="2">
-        <v>85186145</v>
+      <c r="A363" s="3">
+        <v>85193563</v>
       </c>
       <c r="B363" t="s">
         <v>369</v>
       </c>
-      <c r="C363">
-        <v>0</v>
-      </c>
-      <c r="D363">
-        <v>0</v>
-      </c>
-      <c r="E363">
-        <v>5</v>
-      </c>
-      <c r="F363">
-        <v>0</v>
-      </c>
       <c r="G363">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -14619,36 +14604,12 @@
         <v>0</v>
       </c>
       <c r="K363">
-        <f>+SUM(C363:J363)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A364" s="3">
-        <v>85193563</v>
-      </c>
-      <c r="B364" t="s">
-        <v>370</v>
-      </c>
-      <c r="G364">
-        <v>5</v>
-      </c>
-      <c r="H364">
-        <v>0</v>
-      </c>
-      <c r="I364">
-        <v>0</v>
-      </c>
-      <c r="J364">
-        <v>0</v>
-      </c>
-      <c r="K364">
-        <f>+SUM(C364:J364)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K364" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}"/>
+  <autoFilter ref="A1:K363" xr:uid="{FB1888F0-EDFF-4E22-9A46-0F5F767255FE}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14656,6 +14617,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FF4CF54CBB5CD1499C2E2D27BEA04D90" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dab7633707696f8d1e7914e9efb97ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca300967-0762-4098-8d02-5dc80472fd4e" xmlns:ns3="5398af92-0d01-431f-a958-f6aee8c7b261" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d8c570bb40c9c38b2f739d4fc0e027" ns2:_="" ns3:_="">
     <xsd:import namespace="ca300967-0762-4098-8d02-5dc80472fd4e"/>
@@ -14910,27 +14891,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
+    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca300967-0762-4098-8d02-5dc80472fd4e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5398af92-0d01-431f-a958-f6aee8c7b261" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2613BB-203D-4D31-8060-E99D56DF45F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14947,23 +14927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25044418-BC94-4AA4-8171-50396E9105CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C68E054-F8C3-4F7F-A768-57174D4EC9B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca300967-0762-4098-8d02-5dc80472fd4e"/>
-    <ds:schemaRef ds:uri="5398af92-0d01-431f-a958-f6aee8c7b261"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>